--- a/biology/Botanique/Vacuolariaceae/Vacuolariaceae.xlsx
+++ b/biology/Botanique/Vacuolariaceae/Vacuolariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Vacuolariaceae sont une famille d'algues de l'embranchement des Ochrophyta de la classe des Raphidophyceae et de l’ordre des Chattonellales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Vacuolariaceae sont une famille d'algues de l'embranchement des Ochrophyta de la classe des Raphidophyceae et de l’ordre des Chattonellales.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Vacuolaria, construit avec le préfixe latin vacuo-, « vide », par allusion à la  vacuole, et le suffixe -aria, « relatif à », probablement en référence à l'aspect mouvant et fugitif des vacuoles de cet organisme[2]. Cienkowsky remarque que « La zoospore (du Vacuolaria) présente des vacuoles contractiles qui n'ont pas de véritables parois. Lorsque les vacuoles (du Vacuolaria) se forment, on peut voir combien de petites gouttes de liquide apparaissent d'abord au voisinage du noyau, puis s'écoulent progressivement ensemble, pour enfin qu'apparaissent les vacuoles pulsantes. »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Vacuolaria, construit avec le préfixe latin vacuo-, « vide », par allusion à la  vacuole, et le suffixe -aria, « relatif à », probablement en référence à l'aspect mouvant et fugitif des vacuoles de cet organisme. Cienkowsky remarque que « La zoospore (du Vacuolaria) présente des vacuoles contractiles qui n'ont pas de véritables parois. Lorsque les vacuoles (du Vacuolaria) se forment, on peut voir combien de petites gouttes de liquide apparaissent d'abord au voisinage du noyau, puis s'écoulent progressivement ensemble, pour enfin qu'apparaissent les vacuoles pulsantes. ».
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (4 mars 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (4 mars 2022) :
 Chattonella B.Biecheler, 1936
 Chlorinimonas H.Yamaguchi, T.Nakayama, A.Murakami &amp; I.Inouye, 2010
 Coelomonas F.Stein, 1878
@@ -618,9 +636,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2015, Hiroshi Kawai (d) et Takeshi Nakayama (d) classent les genres Fibrocapsa et Haramonas dans les Vacuolariaceae[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2015, Hiroshi Kawai (d) et Takeshi Nakayama (d) classent les genres Fibrocapsa et Haramonas dans les Vacuolariaceae.
 </t>
         </is>
       </c>
